--- a/BeagleBone-CANBus-RevA2-bom.xlsx
+++ b/BeagleBone-CANBus-RevA2-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
   <si>
     <t>C1,C2</t>
   </si>
@@ -70,9 +70,6 @@
     <t>NorComp_db9F_SMD</t>
   </si>
   <si>
-    <t>B2S</t>
-  </si>
-  <si>
     <t>P1,P2</t>
   </si>
   <si>
@@ -244,18 +241,6 @@
     <t>190-009-263R001</t>
   </si>
   <si>
-    <t>HEADER2X1</t>
-  </si>
-  <si>
-    <t>HDR2_.1x.1</t>
-  </si>
-  <si>
-    <t>FCI</t>
-  </si>
-  <si>
-    <t>67997-472HLF</t>
-  </si>
-  <si>
     <t>2x23 HEADER FEMALE</t>
   </si>
   <si>
@@ -364,9 +349,6 @@
     <t>BILL OF MATERIALS</t>
   </si>
   <si>
-    <t>J24,J28</t>
-  </si>
-  <si>
     <t>R51</t>
   </si>
   <si>
@@ -385,10 +367,10 @@
     <t>C3,C19,C21,C17</t>
   </si>
   <si>
-    <t>R12,R49,R50,J22,J23,J25,J26,J27,J29,U27,C24</t>
-  </si>
-  <si>
     <t>BEAGLEBONE CANBUS REV A2</t>
+  </si>
+  <si>
+    <t>R12,R49,R50,J22,J23,J24,J25,J26,J27,J28,J29,U27,C24</t>
   </si>
 </sst>
 </file>
@@ -986,7 +968,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1020,15 +1002,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1395,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1415,48 +1388,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
@@ -1476,13 +1449,13 @@
         <v>2</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -1493,8 +1466,8 @@
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>122</v>
+      <c r="C7" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>3</v>
@@ -1503,13 +1476,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -1530,13 +1503,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -1557,13 +1530,13 @@
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -1578,19 +1551,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -1611,13 +1584,13 @@
         <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -1638,10 +1611,10 @@
         <v>14</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>13</v>
@@ -1665,140 +1638,140 @@
         <v>17</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="20">
+        <v>9</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" s="14" customFormat="1">
-      <c r="A14" s="6">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12">
-        <v>2</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="H14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="23">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="13">
         <v>10</v>
       </c>
-      <c r="B15" s="16">
-        <v>2</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="24"/>
       <c r="D16" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="F17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7">
+        <v>33</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="16">
-        <v>11</v>
-      </c>
-      <c r="B17" s="16">
-        <v>1</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:9" s="8" customFormat="1">
       <c r="A19" s="6">
         <v>12</v>
       </c>
@@ -1806,22 +1779,22 @@
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <v>33</v>
-      </c>
-      <c r="E19" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="D19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="7">
+        <v>402</v>
+      </c>
       <c r="F19" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="I19" s="6"/>
     </row>
@@ -1830,25 +1803,25 @@
         <v>13</v>
       </c>
       <c r="B20" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" s="7">
         <v>402</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -1857,25 +1830,25 @@
         <v>14</v>
       </c>
       <c r="B21" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="7">
         <v>402</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -1884,25 +1857,25 @@
         <v>15</v>
       </c>
       <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="7">
-        <v>402</v>
+        <v>4</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -1911,25 +1884,25 @@
         <v>16</v>
       </c>
       <c r="B23" s="6">
-        <v>4</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="11">
         <v>0</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>23</v>
+      <c r="E23" s="11">
+        <v>603</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -1940,23 +1913,23 @@
       <c r="B24" s="6">
         <v>1</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11">
-        <v>603</v>
+      <c r="C24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="7">
+        <v>402</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -1968,22 +1941,22 @@
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="7">
-        <v>402</v>
+        <v>32</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -1995,22 +1968,22 @@
         <v>1</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I26" s="6"/>
     </row>
@@ -2022,22 +1995,22 @@
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I27" s="6"/>
     </row>
@@ -2049,70 +2022,43 @@
         <v>1</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" s="8" customFormat="1">
-      <c r="A29" s="6">
-        <v>22</v>
-      </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>123</v>
+      <c r="C29" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
